--- a/data/Add-On_board_pins.xlsx
+++ b/data/Add-On_board_pins.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0000106216\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0000106216\Documents\Work\GitHub\Spresense-Playground\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3827603D-5A3D-43FE-88EA-E6E615B5D566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BE5830-C329-4F3B-BC3D-544F3B865F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29520" yWindow="1980" windowWidth="24750" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34290" yWindow="675" windowWidth="21735" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通信系Add-Onボード（9pin）のピンアサイン" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'通信系Add-Onボード（9pin）のピンアサイン'!$A$1:$AG$32</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="78">
   <si>
     <t>default</t>
     <phoneticPr fontId="1"/>
@@ -268,10 +271,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SPI/emmc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ELTRES</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -324,6 +323,58 @@
   </si>
   <si>
     <t>eMMC Add-on</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GNSS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEN_IRQ_IN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2C0_SDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2C0_SDL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USB Host</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emmc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoRa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -469,7 +520,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,8 +539,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -679,91 +736,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -818,24 +823,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -994,15 +988,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1031,6 +1016,170 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1046,7 +1195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1059,99 +1208,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1426,273 +1632,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AC28"/>
+  <dimension ref="B2:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E3" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="8.9140625" customWidth="1"/>
-    <col min="4" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="4" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" ht="22.5" x14ac:dyDescent="0.65">
-      <c r="H2" s="89" t="s">
+    <row r="2" spans="2:32" ht="22.5" x14ac:dyDescent="0.65">
+      <c r="I2" s="70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="99"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="41"/>
+      <c r="I4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="110"/>
+      <c r="P4" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="15"/>
+      <c r="X4" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF4" s="49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="102"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="56"/>
+      <c r="N5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="22"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z5" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB5" s="23" t="s">
         <v>61</v>
       </c>
+      <c r="AC5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD5" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE5" s="112"/>
+      <c r="AF5" s="56"/>
     </row>
-    <row r="3" spans="2:29" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="34"/>
-      <c r="O4" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" s="19"/>
-      <c r="W4" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC4" s="92"/>
+    <row r="6" spans="2:32" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="111"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="107"/>
+      <c r="P6" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="107"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" s="107"/>
+      <c r="AC6" s="111" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="137"/>
+      <c r="AF6" s="51" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="5" spans="2:29" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="84"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="67"/>
-      <c r="M5" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="V5" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="W5" s="25" t="s">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="94" t="s">
         <v>58</v>
-      </c>
-      <c r="X5" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y5" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z5" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA5" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC5" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="2:29" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" s="68"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="V6" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="W6" s="50"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC6" s="48"/>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="80" t="s">
-        <v>59</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="69"/>
-      <c r="T7" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="21"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="X7" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y7" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="47"/>
+      <c r="L7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="126"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z7" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF7" s="138"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="12"/>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="95"/>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1700,69 +1916,70 @@
         <v>4</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" s="70"/>
-      <c r="T8" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="22"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="13"/>
+      <c r="L8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="128"/>
+      <c r="W8" s="129"/>
+      <c r="X8" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA8" s="123"/>
+      <c r="AB8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC8" s="123"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF8" s="139"/>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="12"/>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="95"/>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1770,71 +1987,72 @@
         <v>27</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="38" t="s">
+      <c r="F9" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="O9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="P9" s="123"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="124"/>
+      <c r="S9" s="125"/>
+      <c r="T9" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="V9" s="128"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA9" s="123"/>
+      <c r="AB9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC9" s="123"/>
+      <c r="AD9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE9" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" s="70"/>
-      <c r="T9" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="U9" s="22"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="AF9" s="139"/>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="12"/>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="95"/>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1842,65 +2060,66 @@
         <v>28</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="38" t="s">
+      <c r="F10" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="18"/>
+      <c r="L10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="55" t="s">
+      <c r="M10" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="O10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="55" t="s">
+      <c r="P10" s="123"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="V10" s="128"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA10" s="123"/>
+      <c r="AB10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC10" s="123"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="S10" s="70"/>
-      <c r="T10" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="U10" s="22"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="13"/>
+      <c r="AF10" s="139"/>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="12"/>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="95"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1908,39 +2127,44 @@
         <v>25</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="S11" s="70"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="W11" s="22"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="11"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="U11" s="54"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="118"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="118"/>
+      <c r="AE11" s="133"/>
+      <c r="AF11" s="119"/>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="12"/>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="95"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1948,37 +2172,42 @@
         <v>26</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="W12" s="22"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC12" s="11"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="U12" s="54"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="118"/>
+      <c r="AC12" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD12" s="118"/>
+      <c r="AE12" s="133"/>
+      <c r="AF12" s="119"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="12"/>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="95"/>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1986,35 +2215,42 @@
         <v>19</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="22"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="11"/>
+      <c r="F13" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="U13" s="54"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="118"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="118"/>
+      <c r="AE13" s="133"/>
+      <c r="AF13" s="119"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="12"/>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="95"/>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2022,438 +2258,609 @@
         <v>20</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="11"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14" s="11"/>
+      <c r="T14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="U14" s="54"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="118"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="118"/>
+      <c r="AE14" s="133"/>
+      <c r="AF14" s="119"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="12"/>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="95"/>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="20" t="s">
+      <c r="F15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="74"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="V15" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="W15" s="22"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC15" s="43" t="s">
+      <c r="M15" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="62"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="114"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE15" s="140"/>
+      <c r="AF15" s="93" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="12"/>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="95"/>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="20" t="s">
+      <c r="F16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="74"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="V16" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="W16" s="22"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC16" s="43" t="s">
+      <c r="M16" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="62"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD16" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE16" s="140"/>
+      <c r="AF16" s="93" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="12"/>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="95"/>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="82" t="s">
+      <c r="E17" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="20" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="70"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="V17" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="W17" s="22"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC17" s="43" t="s">
+      <c r="M17" s="54"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="114"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD17" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE17" s="140"/>
+      <c r="AF17" s="93" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="12"/>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="95"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="82" t="s">
+      <c r="E18" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="20" t="s">
+      <c r="F18" s="131"/>
+      <c r="G18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="70"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="U18" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="V18" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="W18" s="22"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC18" s="43" t="s">
+      <c r="M18" s="54"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18" s="7"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD18" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE18" s="140"/>
+      <c r="AF18" s="93" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="12"/>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="95"/>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F19" s="131"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="18"/>
       <c r="Q19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="S19" s="70"/>
-      <c r="T19" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="U19" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="V19" s="11"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC19" s="43" t="s">
+      <c r="R19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" s="86"/>
+      <c r="U19" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" s="11"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD19" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE19" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF19" s="54" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:29" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15" t="s">
+    <row r="20" spans="2:32" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B20" s="96"/>
+      <c r="C20" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="83" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="V20" s="16"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC20" s="46" t="s">
+      <c r="F20" s="132"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="23"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="W20" s="23"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD20" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE20" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF20" s="50" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="97"/>
+      <c r="C21" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="85"/>
+      <c r="F21" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="88"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="135"/>
+      <c r="AF21" s="58"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="97"/>
+      <c r="C22" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="67"/>
+      <c r="F22" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="134"/>
+      <c r="AF22" s="59"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="D25" t="s">
+    <row r="23" spans="2:32" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B23" s="98"/>
+      <c r="C23" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="68"/>
+      <c r="F23" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="116"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="60"/>
+    </row>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+    </row>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" t="s">
         <v>45</v>
       </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="H28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="G26" t="s">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="H29" t="s">
         <v>35</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="G27" t="s">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="H30" t="s">
         <v>37</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="H28" t="s">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="I31" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B7:B20"/>
+  <mergeCells count="13">
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="B7:B23"/>
     <mergeCell ref="B4:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="11" scale="24" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>